--- a/GridSearchResults/Hyperparameters_NTSK-wRLS_Alice_59_Site_38_QCELLS_Power.xlsx
+++ b/GridSearchResults/Hyperparameters_NTSK-wRLS_Alice_59_Site_38_QCELLS_Power.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_clusters</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RLS_option</t>
+          <t>adaptive_filter</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -482,17 +482,19 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>2</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3389426223923103</v>
+        <v>0.3389426223923964</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9462728344296608</v>
+        <v>0.9462728344299011</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2662458878997859</v>
+        <v>0.2662458878999209</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -510,17 +512,19 @@
       <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3555589459056596</v>
+        <v>0.3450909056852412</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9926629149624594</v>
+        <v>0.9634378442989248</v>
       </c>
       <c r="G3" t="n">
-        <v>0.264794501929513</v>
+        <v>0.2507222847087046</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -538,17 +542,19 @@
       <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>2</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>0.3409366625425144</v>
+        <v>0.3435806533029622</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9518398711498647</v>
+        <v>0.9592214645695286</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2511305732835474</v>
+        <v>0.2494468821090003</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
@@ -566,17 +572,19 @@
       <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
-        <v>2</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3476948180053159</v>
+        <v>0.341235608020874</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9707075452127021</v>
+        <v>0.9526744784446057</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2556354991599781</v>
+        <v>0.2435756649949328</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -594,17 +602,19 @@
       <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
-        <v>2</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3440266324403923</v>
+        <v>0.3543855117192541</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9604665659955277</v>
+        <v>0.9893868770131768</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2515435953916094</v>
+        <v>0.2535839278984292</v>
       </c>
       <c r="H6" t="n">
         <v>13</v>
@@ -622,17 +632,19 @@
       <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
-        <v>2</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>0.3448224501501989</v>
+        <v>0.3397578123769143</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9626883599812847</v>
+        <v>0.9485487126649954</v>
       </c>
       <c r="G7" t="n">
-        <v>0.249957506769812</v>
+        <v>0.2431092099085204</v>
       </c>
       <c r="H7" t="n">
         <v>16</v>
@@ -650,17 +662,19 @@
       <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
-        <v>2</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>0.3382939110527354</v>
+        <v>0.3405361950855589</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9444617375729316</v>
+        <v>0.950721830954992</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2671406756476395</v>
+        <v>0.2658466593202523</v>
       </c>
       <c r="H8" t="n">
         <v>19</v>
